--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>周报日期</t>
   </si>
@@ -80,7 +80,12 @@
 3，AMS、WMS、PMS源码分析</t>
   </si>
   <si>
-    <t>1，完善了系统克隆的文档</t>
+    <t>1,完善了系统克隆的文档
+2,学习StartUML中类图画法</t>
+  </si>
+  <si>
+    <t>1,完善了文档,李工查看并且提出了意见
+2,整理Setting源码SU结构图</t>
   </si>
 </sst>
 </file>
@@ -88,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,11 +107,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,45 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +191,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -197,7 +200,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,29 +230,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,169 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +451,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,7 +497,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,39 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1042,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
@@ -1143,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" ht="41" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,17 +1161,20 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:4">
+    <row r="9" ht="36" customHeight="1" spans="2:5">
       <c r="B9" s="5"/>
       <c r="C9" s="3">
         <v>43929</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>周报日期</t>
   </si>
@@ -37,6 +40,39 @@
     <t>目前想到的解决办法</t>
   </si>
   <si>
+    <t>2020/04/07~2020/04/10</t>
+  </si>
+  <si>
+    <t>1，完成克隆文档并且完成评审
+2，频繁卡死调试进度50%
+3，AMS、WMS、PMS源码分析</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>1,完善了系统克隆的文档
+2,学习StartUML中类图画法</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>1,完善了文档,李工查看并且提出了意见
+2,整理Setting源码SU结构图</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>1,Setting源码结构
+2,xml解析的三种方式
+3,pair,ResolveInfo</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
     <t>2020/03/30~2020/04/03</t>
   </si>
   <si>
@@ -46,9 +82,6 @@
     <t>1，测试密码框的功能</t>
   </si>
   <si>
-    <t>星期二</t>
-  </si>
-  <si>
     <t>1，开启和关闭状态栏标题栏快速点击的时候出现了crash现象</t>
   </si>
   <si>
@@ -56,36 +89,11 @@
   </si>
   <si>
     <t>1，屏蔽快速按钮</t>
-  </si>
-  <si>
-    <t>星期三</t>
   </si>
   <si>
     <t>1，Data区域复制，直接方式搞定
 2，采用recover方式，按这个书写
 设计思路</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>2020/04/07~2020/04/10</t>
-  </si>
-  <si>
-    <t>1，完成克隆文档并且完成评审
-2，频繁卡死调试进度50%
-3，AMS、WMS、PMS源码分析</t>
-  </si>
-  <si>
-    <t>1,完善了系统克隆的文档
-2,学习StartUML中类图画法</t>
-  </si>
-  <si>
-    <t>1,完善了文档,李工查看并且提出了意见
-2,整理Setting源码SU结构图</t>
   </si>
 </sst>
 </file>
@@ -93,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,14 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -122,40 +122,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,15 +139,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,61 +228,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,50 +462,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +497,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,11 +523,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,14 +719,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,26 +1047,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1077,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1080,127 +1089,145 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43920</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" ht="41" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
+      <c r="D2" s="4">
+        <v>43928</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="53" customHeight="1" spans="3:8">
-      <c r="C3" s="3">
-        <v>43921</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="3" ht="36" customHeight="1" spans="3:6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>43929</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="3:6">
-      <c r="C4" s="3">
-        <v>43922</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" ht="68" customHeight="1" spans="3:6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>43930</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="5" customHeight="1" spans="3:4">
-      <c r="C5" s="3">
-        <v>43923</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="5" customHeight="1" spans="3:5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>43931</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
-      <c r="C6" s="3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43920</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="53" customHeight="1" spans="4:9">
+      <c r="D8" s="4">
+        <v>43921</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="49" customHeight="1" spans="4:7">
+      <c r="D9" s="4">
+        <v>43922</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="4:5">
+      <c r="D10" s="4">
+        <v>43923</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="4:5">
+      <c r="D11" s="4">
         <v>43924</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="41" customHeight="1" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43928</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="2:5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3">
-        <v>43929</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3">
-        <v>43930</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3">
-        <v>43931</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
+  <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>目前想到的解决办法</t>
+  </si>
+  <si>
+    <t>2020/04/13~2020/04/17</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
   </si>
   <si>
     <t>2020/04/07~2020/04/10</t>
@@ -48,21 +66,12 @@
 3，AMS、WMS、PMS源码分析</t>
   </si>
   <si>
-    <t>星期二</t>
-  </si>
-  <si>
     <t>1,完善了系统克隆的文档
 2,学习StartUML中类图画法</t>
   </si>
   <si>
-    <t>星期三</t>
-  </si>
-  <si>
     <t>1,完善了文档,李工查看并且提出了意见
 2,整理Setting源码SU结构图</t>
-  </si>
-  <si>
-    <t>星期四</t>
   </si>
   <si>
     <t>1,Setting源码结构
@@ -70,13 +79,11 @@
 3,pair,ResolveInfo</t>
   </si>
   <si>
-    <t>星期五</t>
+    <t>1,ActivityInfo
+2,AndroidManifest.xml中的定义</t>
   </si>
   <si>
     <t>2020/03/30~2020/04/03</t>
-  </si>
-  <si>
-    <t>星期一</t>
   </si>
   <si>
     <t>1，测试密码框的功能</t>
@@ -101,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,7 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,7 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,45 +152,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,37 +222,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -235,25 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +466,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,7 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,62 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,154 +586,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1060,7 +1064,7 @@
     <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.875" style="1" customWidth="1"/>
@@ -1093,141 +1097,202 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="41" customHeight="1" spans="1:6">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3">
+        <v>43934</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="3:6">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3">
+        <v>43935</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:6">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3">
+        <v>43936</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="3">
+        <v>43937</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="3">
+        <v>43938</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customHeight="1" spans="3:6">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="41" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
         <v>43928</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="3:6">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>43929</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="68" customHeight="1" spans="3:6">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
-        <v>43930</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:5">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
-        <v>43931</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="23" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43920</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="53" customHeight="1" spans="4:9">
-      <c r="D8" s="4">
-        <v>43921</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="4:6">
+      <c r="D9" s="3">
+        <v>43929</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="68" customHeight="1" spans="4:6">
+      <c r="D10" s="3">
+        <v>43930</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="46" customHeight="1" spans="4:6">
+      <c r="D11" s="3">
+        <v>43931</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="4:4">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5">
+      <c r="D13" s="3">
+        <v>43920</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="53" customHeight="1" spans="4:9">
+      <c r="D14" s="3">
+        <v>43921</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.5</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="49" customHeight="1" spans="4:7">
-      <c r="D9" s="4">
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="49" customHeight="1" spans="4:7">
+      <c r="D15" s="3">
         <v>43922</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="4:5">
+      <c r="D16" s="3">
+        <v>43923</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="4:5">
-      <c r="D10" s="4">
-        <v>43923</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="4:5">
-      <c r="D11" s="4">
+    </row>
+    <row r="17" customHeight="1" spans="4:5">
+      <c r="D17" s="3">
         <v>43924</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C8:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>星期一</t>
+  </si>
+  <si>
+    <t>1,修改整理完毕重启时间设置,setting架构层代码整理
+2,克隆文档的修改</t>
   </si>
   <si>
     <t>星期二</t>
@@ -244,23 +248,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +279,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,18 +309,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,25 +363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,30 +429,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,79 +441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1058,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1097,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" ht="45" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1111,70 +1115,67 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" customHeight="1" spans="3:6">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="3:5">
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>43935</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="3:5">
       <c r="C4" s="1"/>
       <c r="D4" s="3">
         <v>43936</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:5">
       <c r="C5" s="1"/>
       <c r="D5" s="3">
         <v>43937</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:5">
       <c r="C6" s="1"/>
       <c r="D6" s="3">
         <v>43938</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" customHeight="1" spans="3:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:3">
       <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>43928</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="4:6">
@@ -1182,10 +1183,10 @@
         <v>43929</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="68" customHeight="1" spans="4:6">
@@ -1193,10 +1194,10 @@
         <v>43930</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="46" customHeight="1" spans="4:6">
@@ -1204,10 +1205,10 @@
         <v>43931</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
@@ -1218,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>43920</v>
@@ -1227,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1238,19 +1239,19 @@
         <v>43921</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4">
         <v>0.5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="49" customHeight="1" spans="4:7">
@@ -1258,10 +1259,10 @@
         <v>43922</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="4">
         <v>0.8</v>
@@ -1272,7 +1273,7 @@
         <v>43923</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:5">
@@ -1280,7 +1281,7 @@
         <v>43924</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -51,6 +51,11 @@
   </si>
   <si>
     <t>星期二</t>
+  </si>
+  <si>
+    <t>1,busybox工具盒子
+2,recovery模式挂载
+3,修改系统克隆文档v1.3</t>
   </si>
   <si>
     <t>星期三</t>
@@ -112,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +133,113 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,113 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -279,6 +284,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,126 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,30 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,26 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +504,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,145 +583,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1063,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1119,13 +1124,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="3:5">
+    <row r="3" ht="52" customHeight="1" spans="3:6">
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>43935</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:5">
@@ -1134,7 +1142,7 @@
         <v>43936</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:5">
@@ -1143,7 +1151,7 @@
         <v>43937</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:5">
@@ -1152,7 +1160,7 @@
         <v>43938</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:3">
@@ -1163,10 +1171,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>43928</v>
@@ -1175,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="4:6">
@@ -1183,10 +1191,10 @@
         <v>43929</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="68" customHeight="1" spans="4:6">
@@ -1194,10 +1202,10 @@
         <v>43930</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="46" customHeight="1" spans="4:6">
@@ -1205,10 +1213,10 @@
         <v>43931</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
@@ -1219,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
         <v>43920</v>
@@ -1228,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1242,16 +1250,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4">
         <v>0.5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="49" customHeight="1" spans="4:7">
@@ -1259,10 +1267,10 @@
         <v>43922</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4">
         <v>0.8</v>
@@ -1273,7 +1281,7 @@
         <v>43923</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:5">
@@ -1281,7 +1289,7 @@
         <v>43924</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>星期四</t>
+  </si>
+  <si>
+    <t>1，屏蔽双击，展示和显示导航栏和状态栏（WMS常看刘望舒的博客）
+2，评审会议</t>
   </si>
   <si>
     <t>星期五</t>
@@ -117,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,7 +144,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,29 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -284,6 +288,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,168 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +482,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,145 +587,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1067,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1073,7 +1077,7 @@
     <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.875" style="1" customWidth="1"/>
@@ -1145,13 +1149,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="3:5">
+    <row r="5" ht="45" customHeight="1" spans="3:6">
       <c r="C5" s="1"/>
       <c r="D5" s="3">
         <v>43937</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:5">
@@ -1160,7 +1167,7 @@
         <v>43938</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:3">
@@ -1171,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>43928</v>
@@ -1183,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="4:6">
@@ -1194,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="68" customHeight="1" spans="4:6">
@@ -1205,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="46" customHeight="1" spans="4:6">
@@ -1213,10 +1220,10 @@
         <v>43931</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
@@ -1227,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>43920</v>
@@ -1236,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1250,16 +1257,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4">
         <v>0.5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="49" customHeight="1" spans="4:7">
@@ -1270,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
         <v>0.8</v>
@@ -1289,7 +1296,7 @@
         <v>43924</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -43,14 +43,32 @@
     <t>2020/04/13~2020/04/17</t>
   </si>
   <si>
+    <t>1,三个检测apk
+2,在线升级apk升级解析
+3,系统克隆的计划编写</t>
+  </si>
+  <si>
     <t>星期一</t>
+  </si>
+  <si>
+    <t>1,Settings并未整理完毕
+2,系统在线升级评审文档的编写</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
   </si>
   <si>
     <t>1,修改整理完毕重启时间设置,setting架构层代码整理
 2,克隆文档的修改</t>
-  </si>
-  <si>
-    <t>星期二</t>
   </si>
   <si>
     <t>1,busybox工具盒子
@@ -58,17 +76,8 @@
 3,修改系统克隆文档v1.3</t>
   </si>
   <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
     <t>1，屏蔽双击，展示和显示导航栏和状态栏（WMS常看刘望舒的博客）
 2，评审会议</t>
-  </si>
-  <si>
-    <t>星期五</t>
   </si>
   <si>
     <t>2020/04/07~2020/04/10</t>
@@ -1064,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1110,205 +1119,268 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:6">
+    <row r="2" ht="38" customHeight="1" spans="1:6">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="3">
-        <v>43934</v>
+        <v>43941</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="52" customHeight="1" spans="3:6">
-      <c r="C3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="4:6">
       <c r="D3" s="3">
-        <v>43935</v>
+        <v>43942</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:5">
-      <c r="C4" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" customHeight="1" spans="4:6">
       <c r="D4" s="3">
-        <v>43936</v>
+        <v>43943</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="3:6">
-      <c r="C5" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customHeight="1" spans="4:6">
       <c r="D5" s="3">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" customHeight="1" spans="4:6">
+      <c r="D6" s="3">
+        <v>43945</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:5">
-      <c r="C6" s="1"/>
-      <c r="D6" s="3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customHeight="1" spans="3:6">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3">
+        <v>43934</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="52" customHeight="1" spans="3:6">
+      <c r="C9" s="1"/>
+      <c r="D9" s="3">
+        <v>43935</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:5">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3">
+        <v>43936</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="3:6">
+      <c r="C11" s="1"/>
+      <c r="D11" s="3">
+        <v>43937</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
+      <c r="C12" s="1"/>
+      <c r="D12" s="3">
         <v>43938</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:3">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" ht="41" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:6">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
         <v>43928</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="4:6">
-      <c r="D9" s="3">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="4:6">
+      <c r="D15" s="3">
         <v>43929</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="68" customHeight="1" spans="4:6">
-      <c r="D10" s="3">
-        <v>43930</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="46" customHeight="1" spans="4:6">
-      <c r="D11" s="3">
-        <v>43931</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="4:4">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3">
-        <v>43920</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="53" customHeight="1" spans="4:9">
-      <c r="D14" s="3">
-        <v>43921</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="49" customHeight="1" spans="4:7">
-      <c r="D15" s="3">
-        <v>43922</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="4:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="68" customHeight="1" spans="4:6">
       <c r="D16" s="3">
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="4:5">
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="46" customHeight="1" spans="4:6">
       <c r="D17" s="3">
+        <v>43931</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="4:4">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:7">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43920</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="53" customHeight="1" spans="4:9">
+      <c r="D20" s="3">
+        <v>43921</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="49" customHeight="1" spans="4:7">
+      <c r="D21" s="3">
+        <v>43922</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="4:5">
+      <c r="D22" s="3">
+        <v>43923</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="4:5">
+      <c r="D23" s="3">
         <v>43924</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/0_2020年周报.xlsx
+++ b/0_2020年周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -40,24 +40,22 @@
     <t>目前想到的解决办法</t>
   </si>
   <si>
-    <t>2020/04/13~2020/04/17</t>
-  </si>
-  <si>
-    <t>1,三个检测apk
-2,在线升级apk升级解析
-3,系统克隆的计划编写</t>
+    <t>2020/07/06~2020/07/10</t>
   </si>
   <si>
     <t>星期一</t>
   </si>
   <si>
-    <t>1,Settings并未整理完毕
-2,系统在线升级评审文档的编写</t>
+    <t>1.克隆的专利文件的提交
+2.去掉开发者选项中不保留活动选项</t>
   </si>
   <si>
     <t>星期二</t>
   </si>
   <si>
+    <t>1.rk3399测试程序bug修改</t>
+  </si>
+  <si>
     <t>星期三</t>
   </si>
   <si>
@@ -65,64 +63,6 @@
   </si>
   <si>
     <t>星期五</t>
-  </si>
-  <si>
-    <t>1,修改整理完毕重启时间设置,setting架构层代码整理
-2,克隆文档的修改</t>
-  </si>
-  <si>
-    <t>1,busybox工具盒子
-2,recovery模式挂载
-3,修改系统克隆文档v1.3</t>
-  </si>
-  <si>
-    <t>1，屏蔽双击，展示和显示导航栏和状态栏（WMS常看刘望舒的博客）
-2，评审会议</t>
-  </si>
-  <si>
-    <t>2020/04/07~2020/04/10</t>
-  </si>
-  <si>
-    <t>1，完成克隆文档并且完成评审
-2，频繁卡死调试进度50%
-3，AMS、WMS、PMS源码分析</t>
-  </si>
-  <si>
-    <t>1,完善了系统克隆的文档
-2,学习StartUML中类图画法</t>
-  </si>
-  <si>
-    <t>1,完善了文档,李工查看并且提出了意见
-2,整理Setting源码SU结构图</t>
-  </si>
-  <si>
-    <t>1,Setting源码结构
-2,xml解析的三种方式
-3,pair,ResolveInfo</t>
-  </si>
-  <si>
-    <t>1,ActivityInfo
-2,AndroidManifest.xml中的定义</t>
-  </si>
-  <si>
-    <t>2020/03/30~2020/04/03</t>
-  </si>
-  <si>
-    <t>1，测试密码框的功能</t>
-  </si>
-  <si>
-    <t>1，开启和关闭状态栏标题栏快速点击的时候出现了crash现象</t>
-  </si>
-  <si>
-    <t>视图添加出错</t>
-  </si>
-  <si>
-    <t>1，屏蔽快速按钮</t>
-  </si>
-  <si>
-    <t>1，Data区域复制，直接方式搞定
-2，采用recover方式，按这个书写
-设计思路</t>
   </si>
 </sst>
 </file>
@@ -1073,17 +1013,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="59" style="2" customWidth="1"/>
@@ -1093,7 +1033,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" ht="46" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,268 +1059,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="38" customHeight="1" spans="1:6">
+    <row r="2" ht="42" customHeight="1" spans="1:7">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>43920</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>43941</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="53" customHeight="1" spans="4:7">
+      <c r="D3" s="3">
+        <v>43921</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="4:6">
-      <c r="D3" s="3">
-        <v>43942</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" customHeight="1" spans="4:6">
+    <row r="4" ht="49" customHeight="1" spans="4:7">
       <c r="D4" s="3">
-        <v>43943</v>
+        <v>43922</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="4:6">
+    <row r="5" customHeight="1" spans="4:5">
       <c r="D5" s="3">
-        <v>43944</v>
+        <v>43923</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1"/>
     </row>
-    <row r="6" customHeight="1" spans="4:6">
+    <row r="6" customHeight="1" spans="4:5">
       <c r="D6" s="3">
-        <v>43945</v>
+        <v>43924</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" customHeight="1" spans="3:6">
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3">
-        <v>43934</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="52" customHeight="1" spans="3:6">
-      <c r="C9" s="1"/>
-      <c r="D9" s="3">
-        <v>43935</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:5">
-      <c r="C10" s="1"/>
-      <c r="D10" s="3">
-        <v>43936</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="3:6">
-      <c r="C11" s="1"/>
-      <c r="D11" s="3">
-        <v>43937</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:5">
-      <c r="C12" s="1"/>
-      <c r="D12" s="3">
-        <v>43938</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:3">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" ht="41" customHeight="1" spans="1:6">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>43928</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="4:6">
-      <c r="D15" s="3">
-        <v>43929</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="68" customHeight="1" spans="4:6">
-      <c r="D16" s="3">
-        <v>43930</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="46" customHeight="1" spans="4:6">
-      <c r="D17" s="3">
-        <v>43931</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="4:4">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:7">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3">
-        <v>43920</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="53" customHeight="1" spans="4:9">
-      <c r="D20" s="3">
-        <v>43921</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="49" customHeight="1" spans="4:7">
-      <c r="D21" s="3">
-        <v>43922</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="4:5">
-      <c r="D22" s="3">
-        <v>43923</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="4:5">
-      <c r="D23" s="3">
-        <v>43924</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
